--- a/data/test_result.xlsx
+++ b/data/test_result.xlsx
@@ -101,55 +101,55 @@
     <t>스위스패키지여행</t>
   </si>
   <si>
+    <t>bid changing</t>
+  </si>
+  <si>
+    <t>PP-4-캄보디아/베트남</t>
+  </si>
+  <si>
+    <t>nkw-a001-01-000001413683305</t>
+  </si>
+  <si>
+    <t>베트남캄보디아패키지</t>
+  </si>
+  <si>
+    <t>PP-2-보라카이</t>
+  </si>
+  <si>
+    <t>nkw-a001-01-000001413674223</t>
+  </si>
+  <si>
+    <t>보라카이패키지</t>
+  </si>
+  <si>
+    <t>PP-1-서유럽</t>
+  </si>
+  <si>
+    <t>nkw-a001-01-000001413707219</t>
+  </si>
+  <si>
+    <t>서유럽패키지여행</t>
+  </si>
+  <si>
+    <t>PP-2-동유럽</t>
+  </si>
+  <si>
+    <t>nkw-a001-01-000001413702834</t>
+  </si>
+  <si>
+    <t>동유럽패키지여행</t>
+  </si>
+  <si>
+    <t>PP-0-유럽</t>
+  </si>
+  <si>
+    <t>nkw-a001-01-000001413708457</t>
+  </si>
+  <si>
+    <t>유럽패키지여행</t>
+  </si>
+  <si>
     <t>rank success</t>
-  </si>
-  <si>
-    <t>PP-4-캄보디아/베트남</t>
-  </si>
-  <si>
-    <t>nkw-a001-01-000001413683305</t>
-  </si>
-  <si>
-    <t>베트남캄보디아패키지</t>
-  </si>
-  <si>
-    <t>PP-2-보라카이</t>
-  </si>
-  <si>
-    <t>nkw-a001-01-000001413674223</t>
-  </si>
-  <si>
-    <t>보라카이패키지</t>
-  </si>
-  <si>
-    <t>PP-1-서유럽</t>
-  </si>
-  <si>
-    <t>nkw-a001-01-000001413707219</t>
-  </si>
-  <si>
-    <t>서유럽패키지여행</t>
-  </si>
-  <si>
-    <t>bid changing</t>
-  </si>
-  <si>
-    <t>PP-2-동유럽</t>
-  </si>
-  <si>
-    <t>nkw-a001-01-000001413702834</t>
-  </si>
-  <si>
-    <t>동유럽패키지여행</t>
-  </si>
-  <si>
-    <t>PP-0-유럽</t>
-  </si>
-  <si>
-    <t>nkw-a001-01-000001413708457</t>
-  </si>
-  <si>
-    <t>유럽패키지여행</t>
   </si>
   <si>
     <t>PP-1-태국</t>
@@ -620,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -628,9 +628,7 @@
       <c r="P2" t="n">
         <v>40</v>
       </c>
-      <c r="Q2" s="2" t="n">
-        <v>43430.78196399959</v>
-      </c>
+      <c r="Q2" t="s"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
@@ -661,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -671,7 +669,7 @@
         <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>
@@ -679,9 +677,7 @@
       <c r="P3" t="n">
         <v>40</v>
       </c>
-      <c r="Q3" s="2" t="n">
-        <v>43430.78216315364</v>
-      </c>
+      <c r="Q3" t="s"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
@@ -709,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
         <v>-1</v>
@@ -722,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O4" t="s">
         <v>22</v>
@@ -730,14 +726,16 @@
       <c r="P4" t="n">
         <v>40</v>
       </c>
-      <c r="Q4" t="s"/>
+      <c r="Q4" s="2" t="n">
+        <v>43436.98483498316</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -771,7 +769,7 @@
         <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O5" t="s">
         <v>22</v>
@@ -779,7 +777,9 @@
       <c r="P5" t="n">
         <v>40</v>
       </c>
-      <c r="Q5" t="s"/>
+      <c r="Q5" s="2" t="n">
+        <v>43436.98498710134</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
@@ -881,22 +881,22 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B8" t="n">
         <v>380</v>
       </c>
       <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -930,22 +930,22 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B9" t="n">
         <v>380</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
       </c>
       <c r="G9" t="n">
         <v>400</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
         <v>340</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n">
         <v>330</v>

--- a/data/test_result.xlsx
+++ b/data/test_result.xlsx
@@ -101,36 +101,39 @@
     <t>스위스패키지여행</t>
   </si>
   <si>
+    <t>rank success</t>
+  </si>
+  <si>
+    <t>PP-4-캄보디아/베트남</t>
+  </si>
+  <si>
+    <t>nkw-a001-01-000001413683305</t>
+  </si>
+  <si>
+    <t>베트남캄보디아패키지</t>
+  </si>
+  <si>
+    <t>PP-2-보라카이</t>
+  </si>
+  <si>
+    <t>nkw-a001-01-000001413674223</t>
+  </si>
+  <si>
+    <t>보라카이패키지</t>
+  </si>
+  <si>
+    <t>PP-1-서유럽</t>
+  </si>
+  <si>
+    <t>nkw-a001-01-000001413707219</t>
+  </si>
+  <si>
+    <t>서유럽패키지여행</t>
+  </si>
+  <si>
     <t>bid changing</t>
   </si>
   <si>
-    <t>PP-4-캄보디아/베트남</t>
-  </si>
-  <si>
-    <t>nkw-a001-01-000001413683305</t>
-  </si>
-  <si>
-    <t>베트남캄보디아패키지</t>
-  </si>
-  <si>
-    <t>PP-2-보라카이</t>
-  </si>
-  <si>
-    <t>nkw-a001-01-000001413674223</t>
-  </si>
-  <si>
-    <t>보라카이패키지</t>
-  </si>
-  <si>
-    <t>PP-1-서유럽</t>
-  </si>
-  <si>
-    <t>nkw-a001-01-000001413707219</t>
-  </si>
-  <si>
-    <t>서유럽패키지여행</t>
-  </si>
-  <si>
     <t>PP-2-동유럽</t>
   </si>
   <si>
@@ -147,9 +150,6 @@
   </si>
   <si>
     <t>유럽패키지여행</t>
-  </si>
-  <si>
-    <t>rank success</t>
   </si>
   <si>
     <t>PP-1-태국</t>
@@ -705,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>-1</v>
@@ -718,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O4" t="s">
         <v>22</v>
@@ -726,16 +726,14 @@
       <c r="P4" t="n">
         <v>40</v>
       </c>
-      <c r="Q4" s="2" t="n">
-        <v>43436.98483498316</v>
-      </c>
+      <c r="Q4" t="s"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -769,7 +767,7 @@
         <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O5" t="s">
         <v>22</v>
@@ -777,9 +775,7 @@
       <c r="P5" t="n">
         <v>40</v>
       </c>
-      <c r="Q5" s="2" t="n">
-        <v>43436.98498710134</v>
-      </c>
+      <c r="Q5" t="s"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
@@ -881,22 +877,22 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B8" t="n">
         <v>380</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -930,22 +926,22 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="n">
         <v>400</v>
@@ -975,11 +971,13 @@
       <c r="P9" t="n">
         <v>40</v>
       </c>
-      <c r="Q9" t="s"/>
+      <c r="Q9" s="2" t="n">
+        <v>43439.6073300041</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
         <v>340</v>
@@ -1028,7 +1026,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
         <v>330</v>
